--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2443454.330237332</v>
+        <v>2523971.544152403</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.51190371</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6526249.466327225</v>
+        <v>6721296.77923586</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>130.4122253384787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>229.3185964962598</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.04159960342618</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>163.1209103320711</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -902,16 +904,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>226.2459028176506</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>338.761118035762</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.23931226784374</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>193.5927947728079</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>130.8068755795944</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.6950994874332</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>138.4594393130392</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>64.49166712431334</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>82.39085190149119</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>53.34031244182363</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>181.8006211200601</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1588,7 +1590,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1607,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1619,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>36.43750778287972</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>183.5236380974013</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -1813,22 +1815,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>242.1493099804946</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>119.2158337902832</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1844,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>84.73179601342665</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.35048654214746</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.48828162355655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2135,13 +2137,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>245.2379843596716</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.840129933826</v>
       </c>
       <c r="T22" t="n">
-        <v>201.1123151024603</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>193.7524915407176</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>271.338631283351</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.14874043258271</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2536,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.3097650166883</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2612,16 +2614,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>309.8783980016766</v>
       </c>
       <c r="W26" t="n">
-        <v>334.3658782825033</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2722,10 +2724,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>119.9556231766029</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>271.3386312833519</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2855,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.30168005180193</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.9901801406256</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3193,10 +3195,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>151.08974295335</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3269,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>177.9195839254091</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>64.63266955665311</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3661,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>225.5136677720207</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>271.0640515220193</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3749,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>24.44113508635151</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>354.5721285655362</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.14874043258257</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3983,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>188.3717490130941</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.0673606283495</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1510.029467139356</v>
+        <v>1196.018202934688</v>
       </c>
       <c r="C2" t="n">
-        <v>1503.94528049303</v>
+        <v>1189.934016288362</v>
       </c>
       <c r="D2" t="n">
-        <v>1372.215759949112</v>
+        <v>1189.510490421827</v>
       </c>
       <c r="E2" t="n">
         <v>957.8755444660092</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1516.210242763442</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>1516.210242763442</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X2" t="n">
-        <v>1516.210242763442</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516.210242763442</v>
+        <v>1202.198978558774</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227552</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
         <v>1738.409816796119</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>886.7408633986902</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6474909604067</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2014307549257</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E4" t="n">
-        <v>675.2014307549257</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2014307549257</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2014307549257</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1816.589795035412</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1816.589795035412</v>
+        <v>980.4548788120428</v>
       </c>
       <c r="V4" t="n">
-        <v>1816.589795035412</v>
+        <v>980.4548788120428</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.520130544286</v>
+        <v>980.4548788120428</v>
       </c>
       <c r="X4" t="n">
-        <v>1299.17626840397</v>
+        <v>980.4548788120428</v>
       </c>
       <c r="Y4" t="n">
-        <v>1074.440569792735</v>
+        <v>980.4548788120428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1219.046229197554</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="C5" t="n">
-        <v>1212.962042551228</v>
+        <v>1186.830285299868</v>
       </c>
       <c r="D5" t="n">
-        <v>1212.538516684693</v>
+        <v>1186.406759433333</v>
       </c>
       <c r="E5" t="n">
-        <v>1202.238705241994</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>781.2082931956816</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4565,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="N5" t="n">
-        <v>2088.254281480102</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1608.987305686471</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1225.22700482164</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X5" t="n">
-        <v>1225.22700482164</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1225.22700482164</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4649,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
+        <v>187.8810127971431</v>
+      </c>
+      <c r="M6" t="n">
         <v>704.7239474634683</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1221.566882129794</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1738.409816796119</v>
       </c>
       <c r="O6" t="n">
         <v>1738.409816796119</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.5337470302825</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C7" t="n">
-        <v>519.5337470302825</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D7" t="n">
-        <v>519.5337470302825</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.035937023213</v>
+        <v>2364.082273398158</v>
       </c>
       <c r="C8" t="n">
-        <v>609.911346336483</v>
+        <v>1953.957682711428</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>1549.493752804488</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>1135.153537321385</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>714.1231252750727</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>305.3948411679048</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502955</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.203196935123</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>878.3626980441625</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>3731.172929759718</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>4260.32962767887</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.32962767887</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368435</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162535</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162535</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>3908.544706422045</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.193789739612</v>
+        <v>3558.707151758526</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.193789739612</v>
+        <v>3174.946850893694</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.193789739612</v>
+        <v>2774.303453062647</v>
       </c>
       <c r="Y8" t="n">
-        <v>1430.257116687702</v>
+        <v>2774.303453062647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471285</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>278.8305830300019</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>278.8305830300019</v>
       </c>
       <c r="L9" t="n">
-        <v>675.1644281008379</v>
+        <v>278.8305830300019</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767163</v>
+        <v>1121.807663724569</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433488</v>
+        <v>1995.465755836186</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.0036667135541</v>
+        <v>672.3766863663564</v>
       </c>
       <c r="C10" t="n">
-        <v>356.0036667135541</v>
+        <v>672.3766863663564</v>
       </c>
       <c r="D10" t="n">
-        <v>356.0036667135541</v>
+        <v>512.8820416892663</v>
       </c>
       <c r="E10" t="n">
-        <v>356.0036667135541</v>
+        <v>351.9712265575859</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>351.9712265575859</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>351.9712265575859</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630425</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736869</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725792</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1431.305962742332</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1191.757223719034</v>
+        <v>1363.881755862762</v>
       </c>
       <c r="U10" t="n">
-        <v>908.9590762651578</v>
+        <v>1363.881755862762</v>
       </c>
       <c r="V10" t="n">
-        <v>635.0733312046798</v>
+        <v>1363.881755862762</v>
       </c>
       <c r="W10" t="n">
-        <v>356.0036667135541</v>
+        <v>1084.812091371636</v>
       </c>
       <c r="X10" t="n">
-        <v>356.0036667135541</v>
+        <v>1084.812091371636</v>
       </c>
       <c r="Y10" t="n">
-        <v>356.0036667135541</v>
+        <v>860.0763927604007</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2114.366869915534</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C11" t="n">
-        <v>1704.242279228804</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D11" t="n">
-        <v>1299.778349321865</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.555266593086</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5248545467734</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G11" t="n">
-        <v>386.7965704396057</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>330.073544535078</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1042.664944347316</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1818.98353533907</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2572.164551977688</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3215.795408394793</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3744.952106313945</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>3659.122578160285</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V11" t="n">
-        <v>3309.285023496765</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W11" t="n">
-        <v>2925.524722631934</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X11" t="n">
-        <v>2925.524722631934</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y11" t="n">
-        <v>2524.588049580024</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>724.5071868952557</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>724.5071868952557</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1248.719176806206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.377268917824</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.377268917824</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.98549221312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>867.1873447592441</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V13" t="n">
-        <v>593.3015996987659</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W13" t="n">
-        <v>314.2319352076403</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1849.004547290386</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C14" t="n">
-        <v>1438.879956603656</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1034.416026696716</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>620.0758112136132</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>199.0453991673007</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3499.769438036078</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3794.403653366184</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U14" t="n">
-        <v>3794.403653366184</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.566098702664</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W14" t="n">
-        <v>3060.805797837833</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X14" t="n">
-        <v>2660.162400006785</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y14" t="n">
-        <v>2259.225726954875</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>736.976244986612</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M15" t="n">
-        <v>1579.953325681179</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.377268917824</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.014251363573</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1520.014251363573</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1237.216103909697</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>992.6208413031372</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>992.6208413031372</v>
+        <v>434.325442197532</v>
       </c>
       <c r="X16" t="n">
-        <v>754.2769791628206</v>
+        <v>434.325442197532</v>
       </c>
       <c r="Y16" t="n">
-        <v>529.5412805515853</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>178.8313704314578</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>2053.115206569777</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>2053.115206569777</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.3809371023275</v>
+        <v>359.6405918886512</v>
       </c>
       <c r="C19" t="n">
-        <v>510.3809371023275</v>
+        <v>188.5472194503677</v>
       </c>
       <c r="D19" t="n">
-        <v>350.8862924252375</v>
+        <v>188.5472194503677</v>
       </c>
       <c r="E19" t="n">
-        <v>350.8862924252375</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>350.8862924252375</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>183.6359013507809</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>183.6359013507809</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>922.8163421076072</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>922.8163421076072</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>922.8163421076072</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y19" t="n">
-        <v>698.0806434963719</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.5874612033629</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="T22" t="n">
-        <v>1419.498841682725</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>1136.700694228849</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>1136.700694228849</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>857.6310297377238</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>619.2871675974072</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.2871675974072</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661712</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>1827.394211974982</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1422.930282068042</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.433582065768</v>
+        <v>1008.590066584939</v>
       </c>
       <c r="F23" t="n">
-        <v>862.403170019456</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>453.6748859122881</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O23" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.91790873751</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.08035407399</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209159</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.676655378111</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.739982326201</v>
       </c>
     </row>
     <row r="24">
@@ -6054,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6063,22 +6065,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8317148059963</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851662</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.821136963575</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.022989509699</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>741.1372444492208</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>741.1372444492208</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X25" t="n">
-        <v>741.1372444492208</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y25" t="n">
-        <v>611.5314212000407</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C26" t="n">
         <v>2139.066799289355</v>
@@ -6221,55 +6223,55 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O26" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W26" t="n">
-        <v>3360.055967471622</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X26" t="n">
-        <v>2959.412569640574</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6300,25 +6302,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>971.8633271658769</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>800.7699547275934</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>641.2753100505033</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>480.3644949188228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>480.3644949188228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
         <v>359.19719878084</v>
@@ -6379,7 +6381,7 @@
         <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J28" t="n">
         <v>107.3262470958333</v>
@@ -6424,10 +6426,10 @@
         <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>1384.298732171156</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>1159.563033559921</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L29" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O29" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,22 +6539,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L30" t="n">
-        <v>562.1177108836107</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>535.131684607386</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C31" t="n">
-        <v>535.131684607386</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D31" t="n">
-        <v>535.131684607386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
-        <v>374.2208694757054</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J31" t="n">
         <v>107.3262470958333</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1326.430956299306</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.545211238828</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W31" t="n">
-        <v>773.4755467477025</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X31" t="n">
-        <v>535.131684607386</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y31" t="n">
-        <v>535.131684607386</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6695,55 +6697,55 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L32" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M32" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N32" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O32" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6774,19 +6776,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>754.3318696099111</v>
       </c>
       <c r="N33" t="n">
         <v>1627.989961721529</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.1777607016702</v>
+        <v>3732.335952894418</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0843882633866</v>
+        <v>3561.242580456135</v>
       </c>
       <c r="D34" t="n">
-        <v>209.5897435862967</v>
+        <v>3401.747935779045</v>
       </c>
       <c r="E34" t="n">
-        <v>209.5897435862967</v>
+        <v>3240.837120647364</v>
       </c>
       <c r="F34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="G34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="V34" t="n">
-        <v>1470.026692338392</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.957027847267</v>
+        <v>4383.115220040015</v>
       </c>
       <c r="X34" t="n">
-        <v>952.6131657069499</v>
+        <v>4144.771357899698</v>
       </c>
       <c r="Y34" t="n">
-        <v>727.8774670957146</v>
+        <v>3920.035659288463</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6938,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U35" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7019,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>574.7326698490315</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>574.7326698490315</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>574.7326698490315</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1557.357069506773</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1370.965301386683</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1131.416562363385</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>848.6184149095095</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>574.7326698490315</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>574.7326698490315</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X37" t="n">
-        <v>574.7326698490315</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.7326698490315</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
         <v>2139.066799289355</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3920.005762921231</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7256,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>562.1177108836107</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>694.9216971085323</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1394.851010703371</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1394.851010703371</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>1120.965265642893</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>1120.965265642893</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="X40" t="n">
-        <v>882.6214035025766</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.6214035025766</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1644.677675955345</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C41" t="n">
-        <v>1234.553085268616</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D41" t="n">
-        <v>1234.553085268616</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>820.2128697855123</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>163.8354401000908</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>701.9949412091303</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1414.586341021368</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2190.904932013122</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2944.08594865174</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.614349007255</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y41" t="n">
-        <v>1644.677675955345</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>1192.782501251911</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>1192.782501251911</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N42" t="n">
-        <v>2066.440593363528</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.495528261867</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>225.495528261867</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>225.495528261867</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>225.495528261867</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>225.495528261867</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>225.495528261867</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.488822234298</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1048.60307717382</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>769.5334126826942</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>531.1895505423777</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y43" t="n">
-        <v>306.4538519311424</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2411.201761933124</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2001.077171246394</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.613241339454</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.273025856351</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>761.2426138100386</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>352.5143297028708</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>587.5207827111769</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1300.112182523415</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2076.430773515169</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2829.611790153787</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3473.242646570892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3572.197169313043</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3572.197169313043</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3222.359614649523</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3222.359614649523</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3222.359614649523</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2821.422941597613</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M45" t="n">
-        <v>918.8651537618904</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N45" t="n">
-        <v>1742.97328487121</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O45" t="n">
-        <v>1742.97328487121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1742.97328487121</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.88807306732367</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C46" t="n">
-        <v>75.88807306732367</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D46" t="n">
-        <v>75.88807306732367</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E46" t="n">
-        <v>75.88807306732367</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1418.895201568084</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1179.346462544786</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>896.5483150909101</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>622.6625700304321</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>343.5929055393065</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X46" t="n">
-        <v>105.2490433989898</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.88807306732367</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7988,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>532.4592375477436</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>266.9965351298658</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>333.3534809699548</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>265.3595799407153</v>
+        <v>203.7063694346278</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
@@ -8307,7 +8309,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8453,25 +8455,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>710.0778809519909</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>235.5014795744219</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>196.1768986784668</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.01855325033823</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>587.0713442545285</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8942,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>346.677814137072</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
@@ -9015,7 +9017,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600579</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9024,7 +9026,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>409.835129286669</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>141.7522481051737</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>846.2776300172818</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430241</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>529.7246381472005</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663082</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10440,7 +10442,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6635313430244</v>
+        <v>574.6635313430241</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10665,19 +10667,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>281.1102389695264</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10904,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>808.4518367176235</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>162.1593156088302</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11072,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11141,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O42" t="n">
-        <v>114.253171479086</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>349.18410500261</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>885.6258490597295</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.805961426781</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>116.042126272077</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>55.35263051300478</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>368.2034934832164</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23668,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>28.99757762937861</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>157.0631340559311</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7564490426709227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>64.95122043821625</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>25.69430381316056</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>134.6847134965115</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24139,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>40.6877205050628</v>
       </c>
       <c r="T22" t="n">
-        <v>36.04093653060465</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>223.0676163851317</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>85.42914673112929</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.17857660843458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>36.46078111520751</v>
       </c>
       <c r="W26" t="n">
-        <v>45.55681957367977</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>45.62226398710908</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>134.6847134965107</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24856,7 +24858,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>255.6684859275352</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824594</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25093,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>120.0571446565233</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.78732158470123</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.6395838610442</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>5.21491632419503</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>392.3789728394978</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6739688975214</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>119.4276633854651</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26071,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4209809967734</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>628609.9560352352</v>
+        <v>632968.6175610742</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499684.1802298588</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>499684.180229859</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565059.7141235971</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>565059.7141235971</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>565059.7141235971</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>565059.7141235974</v>
+        <v>565059.7141235971</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499684.1802298589</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499684.1802298589</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>521223.6577038622</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038623</v>
       </c>
       <c r="E2" t="n">
-        <v>409824.3164578233</v>
+        <v>463437.86805615</v>
       </c>
       <c r="F2" t="n">
-        <v>409824.3164578232</v>
+        <v>463437.86805615</v>
       </c>
       <c r="G2" t="n">
         <v>463437.8680561502</v>
       </c>
       <c r="H2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="I2" t="n">
         <v>463437.86805615</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>463437.8680561503</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="M2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="N2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="O2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="P2" t="n">
         <v>463437.8680561501</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463437.8680561502</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463437.86805615</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463437.86805615</v>
-      </c>
-      <c r="M2" t="n">
-        <v>463437.8680561501</v>
-      </c>
-      <c r="N2" t="n">
-        <v>463437.86805615</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409824.3164578232</v>
-      </c>
-      <c r="P2" t="n">
-        <v>409824.3164578233</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100682</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647525</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404761</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972383</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.0713552002</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26488,16 +26490,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="M5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>116123.8490121546</v>
       </c>
       <c r="C6" t="n">
-        <v>291079.3589052685</v>
+        <v>291079.3589052686</v>
       </c>
       <c r="D6" t="n">
-        <v>291079.3589052685</v>
+        <v>178530.6489288701</v>
       </c>
       <c r="E6" t="n">
-        <v>211141.3482528114</v>
+        <v>350138.3298932782</v>
       </c>
       <c r="F6" t="n">
-        <v>338496.0150425619</v>
+        <v>377107.2840742128</v>
       </c>
       <c r="G6" t="n">
-        <v>317645.8293882512</v>
+        <v>377107.2840742129</v>
       </c>
       <c r="H6" t="n">
-        <v>377107.2840742127</v>
+        <v>377107.2840742129</v>
       </c>
       <c r="I6" t="n">
         <v>377107.2840742128</v>
@@ -26546,22 +26548,22 @@
         <v>240512.483268318</v>
       </c>
       <c r="K6" t="n">
+        <v>377107.2840742129</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237107.9732094604</v>
+      </c>
+      <c r="M6" t="n">
+        <v>354598.0193001654</v>
+      </c>
+      <c r="N6" t="n">
+        <v>377107.2840742129</v>
+      </c>
+      <c r="O6" t="n">
+        <v>377107.2840742129</v>
+      </c>
+      <c r="P6" t="n">
         <v>377107.2840742128</v>
-      </c>
-      <c r="L6" t="n">
-        <v>377107.2840742128</v>
-      </c>
-      <c r="M6" t="n">
-        <v>270812.4720563381</v>
-      </c>
-      <c r="N6" t="n">
-        <v>377107.2840742128</v>
-      </c>
-      <c r="O6" t="n">
-        <v>338496.0150425619</v>
-      </c>
-      <c r="P6" t="n">
-        <v>338496.015042562</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342109</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720832</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067617</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720832</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720832</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>270.0070652693913</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>180.8782168320124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>117.8580986268929</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>116.849255647266</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,16 +27624,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>183.9509105106216</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>65.87988323033414</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.5833970622602</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27780,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>82.68617307340648</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6124150282756</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>176.104312911126</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>46.06841112584968</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>172.6615845087516</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>474.8949538093261</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>244.2170912967377</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>209.2450561298663</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
@@ -35027,7 +35029,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>616.8881053262078</v>
       </c>
       <c r="P8" t="n">
-        <v>400.9092955204429</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>179.3869557635729</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.4254196784668</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.984748851186181</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>529.5070605161111</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35662,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>256.64400973792</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>547.902972966308</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.1425107818303</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430241</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>473.6101143363514</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663082</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>516.9120523430244</v>
+        <v>516.9120523430241</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>227.9168455757764</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>755.2584433238735</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>88.8357242755223</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37792,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O42" t="n">
-        <v>56.50169247908597</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0477153293929</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>832.4324556659795</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523971.544152403</v>
+        <v>2522658.898696823</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789205</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6721296.77923586</v>
+        <v>6721296.779235861</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>229.3185964962598</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>294.8493024246325</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>139.8681787215772</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,13 +873,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>163.1209103320711</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>226.2459028176506</v>
+        <v>395.0742851230816</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>193.5927947728079</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>131.6950994874332</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8312807184532</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>64.49166712431334</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>219.2279701699388</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.3277174905203</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1530,13 +1530,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>53.34031244182363</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>121.3203059968811</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1660,10 +1660,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5236380974013</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -1815,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>139.7661479445136</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>119.2158337902832</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>187.6971066458113</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.46748333863208</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.35048654214746</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>193.4457141148773</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2137,19 +2137,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>371.2632883521694</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.53515544202676</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>143.840129933826</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2326,10 +2326,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>193.7524915407176</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2377,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>80.14874043258271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>134.1885291524021</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>308.4960544879101</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2614,7 +2614,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>309.8783980016766</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>36.92028215890782</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>271.3386312833519</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>186.4210397731208</v>
       </c>
     </row>
     <row r="32">
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>31.9901801406256</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>41.9303136287532</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>373.736032213064</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>165.9184445944652</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>166.5761791813753</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3438,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>174.1372571702753</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>177.9195839254089</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>354.5721285655362</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>11.91408420559364</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>337.8578625689825</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4137,16 +4137,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>151.9422139631126</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.018202934688</v>
+        <v>1162.388731954239</v>
       </c>
       <c r="C2" t="n">
-        <v>1189.934016288362</v>
+        <v>752.2641412675088</v>
       </c>
       <c r="D2" t="n">
-        <v>1189.510490421827</v>
+        <v>751.8406154009733</v>
       </c>
       <c r="E2" t="n">
-        <v>957.8755444660092</v>
+        <v>741.5408039582741</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4333,22 +4333,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N2" t="n">
         <v>812.7934917636817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4366,16 +4366,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1202.198978558774</v>
+        <v>1168.569507578324</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
         <v>1738.409816796119</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.7551724179984</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="C4" t="n">
-        <v>792.7551724179984</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="D4" t="n">
-        <v>633.2605277409085</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="E4" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
         <v>307.7185867198193</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>980.4548788120428</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>980.4548788120428</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>980.4548788120428</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X4" t="n">
-        <v>980.4548788120428</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="Y4" t="n">
-        <v>980.4548788120428</v>
+        <v>780.8810922913383</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192.914471946194</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.830285299868</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.406759433333</v>
+        <v>866.5483122104374</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.135651610684</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>187.8810127971431</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634683</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>307.7185867198193</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>307.7185867198193</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2364.082273398158</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>1953.957682711428</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>1549.493752804488</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>1135.153537321385</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>714.1231252750727</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>305.3948411679048</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502955</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736869</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.203196935123</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441625</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
         <v>1590.9540978564</v>
@@ -4819,37 +4819,37 @@
         <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759718</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.32962767887</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.32962767887</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368435</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162535</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4165.605198162535</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3908.544706422045</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3558.707151758526</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3174.946850893694</v>
+        <v>2955.863010414022</v>
       </c>
       <c r="X8" t="n">
-        <v>2774.303453062647</v>
+        <v>2955.863010414022</v>
       </c>
       <c r="Y8" t="n">
-        <v>2774.303453062647</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471285</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736869</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.8305830300019</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>278.8305830300019</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>278.8305830300019</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>1121.807663724569</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>1995.465755836186</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>672.3766863663564</v>
+        <v>577.5165577144228</v>
       </c>
       <c r="C10" t="n">
-        <v>672.3766863663564</v>
+        <v>406.4231852761393</v>
       </c>
       <c r="D10" t="n">
-        <v>512.8820416892663</v>
+        <v>246.9285405990493</v>
       </c>
       <c r="E10" t="n">
-        <v>351.9712265575859</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>351.9712265575859</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>351.9712265575859</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630425</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736869</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725792</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948172</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -4989,25 +4989,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1363.881755862762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1363.881755862762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1363.881755862762</v>
+        <v>1507.365489351145</v>
       </c>
       <c r="W10" t="n">
-        <v>1084.812091371636</v>
+        <v>1228.295824860019</v>
       </c>
       <c r="X10" t="n">
-        <v>1084.812091371636</v>
+        <v>989.9519627197025</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.0763927604007</v>
+        <v>765.2162641084672</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4662.18488453114</v>
+        <v>4315.461670445927</v>
       </c>
       <c r="U11" t="n">
-        <v>4405.12439279065</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V11" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1640.177868931084</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.9151332627582</v>
+        <v>755.7132317698615</v>
       </c>
       <c r="C13" t="n">
-        <v>586.0360297861687</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D13" t="n">
-        <v>586.0360297861687</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E13" t="n">
         <v>425.1252146544881</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1500.09683067826</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1500.09683067826</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.844446857597</v>
+        <v>1217.298683224384</v>
       </c>
       <c r="V13" t="n">
-        <v>1065.958701797119</v>
+        <v>943.4129381639059</v>
       </c>
       <c r="W13" t="n">
-        <v>1065.958701797119</v>
+        <v>943.4129381639059</v>
       </c>
       <c r="X13" t="n">
-        <v>827.6148396568026</v>
+        <v>943.4129381639059</v>
       </c>
       <c r="Y13" t="n">
-        <v>827.6148396568026</v>
+        <v>943.4129381639059</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
         <v>2139.066799289355</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.526397105643</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.465905365153</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.628350701634</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.868049836802</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.224652005755</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.287978953845</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>947.1447271725442</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M15" t="n">
-        <v>1790.121807867111</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.121807867111</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1790.121807867111</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1790.121807867111</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C16" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D16" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E16" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
         <v>209.5897435862967</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1396.191948770192</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1396.191948770192</v>
       </c>
       <c r="W16" t="n">
-        <v>434.325442197532</v>
+        <v>1117.122284279066</v>
       </c>
       <c r="X16" t="n">
-        <v>434.325442197532</v>
+        <v>878.7784221387498</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.5897435862967</v>
+        <v>878.7784221387498</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4563.732881158784</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4341.526397105643</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4084.465905365153</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3734.628350701634</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3350.868049836802</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>2950.224652005755</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.287978953845</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5603,13 +5603,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.6405918886512</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C19" t="n">
-        <v>188.5472194503677</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>188.5472194503677</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1001.302375940936</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X19" t="n">
-        <v>547.3402982826956</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y19" t="n">
-        <v>547.3402982826956</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F20" t="n">
         <v>899.2322418529996</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1109.278667993779</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>835.3929229333004</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W22" t="n">
-        <v>556.3232584421747</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X22" t="n">
-        <v>317.9793963018581</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2237.518802661712</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.394211974982</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.930282068042</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.590066584939</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.24369769062281</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.91790873751</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.08035407399</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209159</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.676655378111</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.739982326201</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6065,31 +6065,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851662</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
-        <v>323.8094765544416</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6223,55 +6223,55 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3734.628350701634</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W26" t="n">
-        <v>3350.868049836802</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X26" t="n">
-        <v>2950.224652005755</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.287978953845</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6302,28 +6302,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.3318696099111</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="G28" t="n">
         <v>359.19719878084</v>
@@ -6381,7 +6381,7 @@
         <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
         <v>107.3262470958333</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>396.4904130827671</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455812</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.6973252721</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.63683353161</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.799278868091</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003259</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172212</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120302</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6539,28 +6539,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L30" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7425299376769</v>
+        <v>701.0885758333507</v>
       </c>
       <c r="C31" t="n">
-        <v>413.6491574993933</v>
+        <v>529.9952033950672</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E31" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F31" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
         <v>107.3262470958333</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V31" t="n">
-        <v>1514.591461574399</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W31" t="n">
-        <v>1235.521797083273</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="X31" t="n">
-        <v>997.1779349429565</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.4422363317212</v>
+        <v>888.788282227395</v>
       </c>
     </row>
     <row r="32">
@@ -6697,46 +6697,46 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
         <v>3760.992640523532</v>
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,28 +6776,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3732.335952894418</v>
+        <v>547.9335070990368</v>
       </c>
       <c r="C34" t="n">
-        <v>3561.242580456135</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="D34" t="n">
-        <v>3401.747935779045</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E34" t="n">
-        <v>3240.837120647364</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.78598791029</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.78598791029</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.78598791029</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.184884531141</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.184884531141</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.184884531141</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.184884531141</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.184884531141</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W34" t="n">
-        <v>4383.115220040015</v>
+        <v>786.2773692393534</v>
       </c>
       <c r="X34" t="n">
-        <v>4144.771357899698</v>
+        <v>547.9335070990368</v>
       </c>
       <c r="Y34" t="n">
-        <v>3920.035659288463</v>
+        <v>547.9335070990368</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6940,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>917.6324226769595</v>
       </c>
       <c r="X37" t="n">
-        <v>1384.298732171156</v>
+        <v>917.6324226769595</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>917.6324226769595</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
         <v>2139.066799289355</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7356,25 +7356,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>280.9434040846672</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>280.9434040846672</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
         <v>280.9434040846672</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,16 +7441,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X41" t="n">
         <v>2955.885312785545</v>
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1182.57754799176</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>429.4038967476201</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>269.9092520705302</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>269.9092520705302</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>105.2781261811214</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>105.2781261811214</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.642594311473</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X43" t="n">
-        <v>1595.012952997039</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="Y43" t="n">
-        <v>1370.277254385804</v>
+        <v>600.4972691859036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7687,13 +7687,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.3736558270855</v>
+        <v>363.0667273874205</v>
       </c>
       <c r="C46" t="n">
-        <v>578.280283388802</v>
+        <v>363.0667273874205</v>
       </c>
       <c r="D46" t="n">
-        <v>418.7856387117121</v>
+        <v>363.0667273874205</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800315</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.152922972682</v>
+        <v>789.1102959217815</v>
       </c>
       <c r="X46" t="n">
-        <v>1161.809060832365</v>
+        <v>550.7664337814649</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.0733622211299</v>
+        <v>550.7664337814649</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477436</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>203.7063694346278</v>
+        <v>235.5014795744224</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>710.0778809519909</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663043</v>
       </c>
       <c r="O9" t="n">
-        <v>196.1768986784668</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,16 +8777,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>558.8606699624394</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>409.835129286669</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9251,7 +9251,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
@@ -9260,7 +9260,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9482,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>145.24409210237</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6635313430241</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663082</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6635313430241</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>808.4518367176235</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>713.8858861212706</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88.57144222862041</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>10.65670172208945</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>116.042126272077</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>63.20754444200772</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>36.46078111520842</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23664,13 +23664,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>140.2040180348234</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>157.0631340559311</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>36.46078111520806</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>64.95122043821625</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>86.52445186445976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.66401796922145</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>92.44965918848789</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>40.6877205050628</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>223.0676163851317</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>85.42914673112929</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>96.14494677818601</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>36.46078111520751</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>128.6576050048042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>134.6847134965107</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24897,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>36.06730185200217</v>
       </c>
     </row>
     <row r="32">
@@ -24973,13 +24973,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>222.4997066824594</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>234.3486542174612</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>32.28731256679851</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>54.06597461814459</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>19.24653014872862</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25374,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.6070786176239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>45.84716204233442</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>5.21491632419503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="41">
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>136.1972964370043</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>7.359493017251083</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>565059.7141235974</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235971</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>565059.7141235974</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235971</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>565059.7141235971</v>
+        <v>565059.7141235973</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>565059.7141235973</v>
+        <v>565059.7141235974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038623</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="C2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038621</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038623</v>
+        <v>521223.6577038624</v>
       </c>
       <c r="E2" t="n">
         <v>463437.86805615</v>
       </c>
       <c r="F2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="G2" t="n">
         <v>463437.8680561502</v>
       </c>
       <c r="H2" t="n">
+        <v>463437.86805615</v>
+      </c>
+      <c r="I2" t="n">
         <v>463437.8680561502</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>463437.86805615</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463437.8680561503</v>
       </c>
       <c r="K2" t="n">
         <v>463437.8680561502</v>
       </c>
       <c r="L2" t="n">
-        <v>463437.8680561502</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="M2" t="n">
         <v>463437.8680561502</v>
       </c>
       <c r="N2" t="n">
-        <v>463437.8680561502</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="O2" t="n">
         <v>463437.8680561502</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100682</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093451</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647525</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404761</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972383</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.0713552002</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26490,16 +26490,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116123.8490121546</v>
+        <v>116123.8490121545</v>
       </c>
       <c r="C6" t="n">
-        <v>291079.3589052686</v>
+        <v>291079.3589052684</v>
       </c>
       <c r="D6" t="n">
-        <v>178530.6489288701</v>
+        <v>178530.64892887</v>
       </c>
       <c r="E6" t="n">
-        <v>350138.3298932782</v>
+        <v>349957.7493006294</v>
       </c>
       <c r="F6" t="n">
-        <v>377107.2840742128</v>
+        <v>376926.7034815637</v>
       </c>
       <c r="G6" t="n">
-        <v>377107.2840742129</v>
+        <v>376926.7034815638</v>
       </c>
       <c r="H6" t="n">
-        <v>377107.2840742129</v>
+        <v>376926.7034815637</v>
       </c>
       <c r="I6" t="n">
-        <v>377107.2840742128</v>
+        <v>376926.7034815638</v>
       </c>
       <c r="J6" t="n">
-        <v>240512.483268318</v>
+        <v>240331.9026756687</v>
       </c>
       <c r="K6" t="n">
-        <v>377107.2840742129</v>
+        <v>376926.7034815638</v>
       </c>
       <c r="L6" t="n">
-        <v>237107.9732094604</v>
+        <v>236927.392616811</v>
       </c>
       <c r="M6" t="n">
-        <v>354598.0193001654</v>
+        <v>354417.4387075164</v>
       </c>
       <c r="N6" t="n">
-        <v>377107.2840742129</v>
+        <v>376926.7034815637</v>
       </c>
       <c r="O6" t="n">
-        <v>377107.2840742129</v>
+        <v>376926.7034815638</v>
       </c>
       <c r="P6" t="n">
-        <v>377107.2840742128</v>
+        <v>376926.7034815637</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342109</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720832</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067617</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700257</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720832</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067594</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720832</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067617</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>180.8782168320124</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.9708055012168</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>19.43352825878654</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>116.849255647266</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>183.9509105106216</v>
+        <v>15.12252820519069</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>82.68617307340648</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>176.104312911126</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.091417137729934</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>172.6615845087516</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>147.5918456237788</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>616.8881053262078</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725543</v>
       </c>
       <c r="O9" t="n">
-        <v>138.4254196784668</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.1425107818303</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
@@ -35980,7 +35980,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>87.49261310237</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>516.9120523430241</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>516.9120523430241</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>755.2584433238735</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>656.1344071212706</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
